--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Hras-Insr.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Hras-Insr.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.13896980691527</v>
+        <v>7.567183666666668</v>
       </c>
       <c r="H2">
-        <v>7.13896980691527</v>
+        <v>22.701551</v>
       </c>
       <c r="I2">
-        <v>0.2082359973522726</v>
+        <v>0.2104710071241515</v>
       </c>
       <c r="J2">
-        <v>0.2082359973522726</v>
+        <v>0.2104710071241515</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.8249037155233</v>
+        <v>23.18647466666667</v>
       </c>
       <c r="N2">
-        <v>22.8249037155233</v>
+        <v>69.55942400000001</v>
       </c>
       <c r="O2">
-        <v>0.4922315401143673</v>
+        <v>0.4905436214732101</v>
       </c>
       <c r="P2">
-        <v>0.4922315401143673</v>
+        <v>0.49054362147321</v>
       </c>
       <c r="Q2">
-        <v>162.946298470869</v>
+        <v>175.4563123851805</v>
       </c>
       <c r="R2">
-        <v>162.946298470869</v>
+        <v>1579.106811466624</v>
       </c>
       <c r="S2">
-        <v>0.1025003256839604</v>
+        <v>0.1032452100497951</v>
       </c>
       <c r="T2">
-        <v>0.1025003256839604</v>
+        <v>0.1032452100497951</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.13896980691527</v>
+        <v>7.567183666666668</v>
       </c>
       <c r="H3">
-        <v>7.13896980691527</v>
+        <v>22.701551</v>
       </c>
       <c r="I3">
-        <v>0.2082359973522726</v>
+        <v>0.2104710071241515</v>
       </c>
       <c r="J3">
-        <v>0.2082359973522726</v>
+        <v>0.2104710071241515</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.06649975083874</v>
+        <v>7.208490333333334</v>
       </c>
       <c r="N3">
-        <v>7.06649975083874</v>
+        <v>21.625471</v>
       </c>
       <c r="O3">
-        <v>0.1523929344423698</v>
+        <v>0.1525061055767782</v>
       </c>
       <c r="P3">
-        <v>0.1523929344423698</v>
+        <v>0.1525061055767782</v>
       </c>
       <c r="Q3">
-        <v>50.44752836181204</v>
+        <v>54.54797031172456</v>
       </c>
       <c r="R3">
-        <v>50.44752836181204</v>
+        <v>490.9317328055211</v>
       </c>
       <c r="S3">
-        <v>0.03173369469304638</v>
+        <v>0.0320981136333267</v>
       </c>
       <c r="T3">
-        <v>0.03173369469304638</v>
+        <v>0.03209811363332668</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.13896980691527</v>
+        <v>7.567183666666668</v>
       </c>
       <c r="H4">
-        <v>7.13896980691527</v>
+        <v>22.701551</v>
       </c>
       <c r="I4">
-        <v>0.2082359973522726</v>
+        <v>0.2104710071241515</v>
       </c>
       <c r="J4">
-        <v>0.2082359973522726</v>
+        <v>0.2104710071241515</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.77008086469817</v>
+        <v>5.814195333333333</v>
       </c>
       <c r="N4">
-        <v>5.77008086469817</v>
+        <v>17.442586</v>
       </c>
       <c r="O4">
-        <v>0.1244349516656747</v>
+        <v>0.1230077653359797</v>
       </c>
       <c r="P4">
-        <v>0.1244349516656747</v>
+        <v>0.1230077653359796</v>
       </c>
       <c r="Q4">
-        <v>41.19243307653979</v>
+        <v>43.99708396120956</v>
       </c>
       <c r="R4">
-        <v>41.19243307653979</v>
+        <v>395.973755650886</v>
       </c>
       <c r="S4">
-        <v>0.0259118362655836</v>
+        <v>0.02588956825435494</v>
       </c>
       <c r="T4">
-        <v>0.0259118362655836</v>
+        <v>0.02588956825435493</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.13896980691527</v>
+        <v>7.567183666666668</v>
       </c>
       <c r="H5">
-        <v>7.13896980691527</v>
+        <v>22.701551</v>
       </c>
       <c r="I5">
-        <v>0.2082359973522726</v>
+        <v>0.2104710071241515</v>
       </c>
       <c r="J5">
-        <v>0.2082359973522726</v>
+        <v>0.2104710071241515</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.56497916392025</v>
+        <v>7.695884666666667</v>
       </c>
       <c r="N5">
-        <v>7.56497916392025</v>
+        <v>23.087654</v>
       </c>
       <c r="O5">
-        <v>0.1631429157905734</v>
+        <v>0.162817642142644</v>
       </c>
       <c r="P5">
-        <v>0.1631429157905734</v>
+        <v>0.162817642142644</v>
       </c>
       <c r="Q5">
-        <v>54.00615784116979</v>
+        <v>58.23617275015046</v>
       </c>
       <c r="R5">
-        <v>54.00615784116979</v>
+        <v>524.1255547513541</v>
       </c>
       <c r="S5">
-        <v>0.03397222778060787</v>
+        <v>0.03426839311934198</v>
       </c>
       <c r="T5">
-        <v>0.03397222778060787</v>
+        <v>0.03426839311934197</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.13896980691527</v>
+        <v>7.567183666666668</v>
       </c>
       <c r="H6">
-        <v>7.13896980691527</v>
+        <v>22.701551</v>
       </c>
       <c r="I6">
-        <v>0.2082359973522726</v>
+        <v>0.2104710071241515</v>
       </c>
       <c r="J6">
-        <v>0.2082359973522726</v>
+        <v>0.2104710071241515</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.14379492084568</v>
+        <v>3.361851666666666</v>
       </c>
       <c r="N6">
-        <v>3.14379492084568</v>
+        <v>10.085555</v>
       </c>
       <c r="O6">
-        <v>0.0677976579870149</v>
+        <v>0.07112486547138804</v>
       </c>
       <c r="P6">
-        <v>0.0677976579870149</v>
+        <v>0.07112486547138802</v>
       </c>
       <c r="Q6">
-        <v>22.44345701905089</v>
+        <v>25.43974902175611</v>
       </c>
       <c r="R6">
-        <v>22.44345701905089</v>
+        <v>228.957741195805</v>
       </c>
       <c r="S6">
-        <v>0.01411791292907432</v>
+        <v>0.01496972206733283</v>
       </c>
       <c r="T6">
-        <v>0.01411791292907432</v>
+        <v>0.01496972206733283</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.246812125344951</v>
+        <v>8.450985000000001</v>
       </c>
       <c r="H7">
-        <v>8.246812125344951</v>
+        <v>25.352955</v>
       </c>
       <c r="I7">
-        <v>0.2405505548201855</v>
+        <v>0.2350527491457871</v>
       </c>
       <c r="J7">
-        <v>0.2405505548201855</v>
+        <v>0.2350527491457871</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.8249037155233</v>
+        <v>23.18647466666667</v>
       </c>
       <c r="N7">
-        <v>22.8249037155233</v>
+        <v>69.55942400000001</v>
       </c>
       <c r="O7">
-        <v>0.4922315401143673</v>
+        <v>0.4905436214732101</v>
       </c>
       <c r="P7">
-        <v>0.4922315401143673</v>
+        <v>0.49054362147321</v>
       </c>
       <c r="Q7">
-        <v>188.2326927210086</v>
+        <v>195.94854961088</v>
       </c>
       <c r="R7">
-        <v>188.2326927210086</v>
+        <v>1763.53694649792</v>
       </c>
       <c r="S7">
-        <v>0.1184065700745054</v>
+        <v>0.1153036268032084</v>
       </c>
       <c r="T7">
-        <v>0.1184065700745054</v>
+        <v>0.1153036268032084</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.246812125344951</v>
+        <v>8.450985000000001</v>
       </c>
       <c r="H8">
-        <v>8.246812125344951</v>
+        <v>25.352955</v>
       </c>
       <c r="I8">
-        <v>0.2405505548201855</v>
+        <v>0.2350527491457871</v>
       </c>
       <c r="J8">
-        <v>0.2405505548201855</v>
+        <v>0.2350527491457871</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.06649975083874</v>
+        <v>7.208490333333334</v>
       </c>
       <c r="N8">
-        <v>7.06649975083874</v>
+        <v>21.625471</v>
       </c>
       <c r="O8">
-        <v>0.1523929344423698</v>
+        <v>0.1525061055767782</v>
       </c>
       <c r="P8">
-        <v>0.1523929344423698</v>
+        <v>0.1525061055767782</v>
       </c>
       <c r="Q8">
-        <v>58.276095828964</v>
+        <v>60.91884367964501</v>
       </c>
       <c r="R8">
-        <v>58.276095828964</v>
+        <v>548.269593116805</v>
       </c>
       <c r="S8">
-        <v>0.03665820493078822</v>
+        <v>0.03584697937733938</v>
       </c>
       <c r="T8">
-        <v>0.03665820493078822</v>
+        <v>0.03584697937733937</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.246812125344951</v>
+        <v>8.450985000000001</v>
       </c>
       <c r="H9">
-        <v>8.246812125344951</v>
+        <v>25.352955</v>
       </c>
       <c r="I9">
-        <v>0.2405505548201855</v>
+        <v>0.2350527491457871</v>
       </c>
       <c r="J9">
-        <v>0.2405505548201855</v>
+        <v>0.2350527491457871</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.77008086469817</v>
+        <v>5.814195333333333</v>
       </c>
       <c r="N9">
-        <v>5.77008086469817</v>
+        <v>17.442586</v>
       </c>
       <c r="O9">
-        <v>0.1244349516656747</v>
+        <v>0.1230077653359797</v>
       </c>
       <c r="P9">
-        <v>0.1244349516656747</v>
+        <v>0.1230077653359796</v>
       </c>
       <c r="Q9">
-        <v>47.58477283921375</v>
+        <v>49.13567754907</v>
       </c>
       <c r="R9">
-        <v>47.58477283921375</v>
+        <v>442.22109794163</v>
       </c>
       <c r="S9">
-        <v>0.02993289666220101</v>
+        <v>0.02891331340850188</v>
       </c>
       <c r="T9">
-        <v>0.02993289666220101</v>
+        <v>0.02891331340850187</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.246812125344951</v>
+        <v>8.450985000000001</v>
       </c>
       <c r="H10">
-        <v>8.246812125344951</v>
+        <v>25.352955</v>
       </c>
       <c r="I10">
-        <v>0.2405505548201855</v>
+        <v>0.2350527491457871</v>
       </c>
       <c r="J10">
-        <v>0.2405505548201855</v>
+        <v>0.2350527491457871</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.56497916392025</v>
+        <v>7.695884666666667</v>
       </c>
       <c r="N10">
-        <v>7.56497916392025</v>
+        <v>23.087654</v>
       </c>
       <c r="O10">
-        <v>0.1631429157905734</v>
+        <v>0.162817642142644</v>
       </c>
       <c r="P10">
-        <v>0.1631429157905734</v>
+        <v>0.162817642142644</v>
       </c>
       <c r="Q10">
-        <v>62.38696189699942</v>
+        <v>65.03780587973002</v>
       </c>
       <c r="R10">
-        <v>62.38696189699942</v>
+        <v>585.3402529175701</v>
       </c>
       <c r="S10">
-        <v>0.03924411890840523</v>
+        <v>0.03827073439506345</v>
       </c>
       <c r="T10">
-        <v>0.03924411890840523</v>
+        <v>0.03827073439506343</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>8.246812125344951</v>
+        <v>8.450985000000001</v>
       </c>
       <c r="H11">
-        <v>8.246812125344951</v>
+        <v>25.352955</v>
       </c>
       <c r="I11">
-        <v>0.2405505548201855</v>
+        <v>0.2350527491457871</v>
       </c>
       <c r="J11">
-        <v>0.2405505548201855</v>
+        <v>0.2350527491457871</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.14379492084568</v>
+        <v>3.361851666666666</v>
       </c>
       <c r="N11">
-        <v>3.14379492084568</v>
+        <v>10.085555</v>
       </c>
       <c r="O11">
-        <v>0.0677976579870149</v>
+        <v>0.07112486547138804</v>
       </c>
       <c r="P11">
-        <v>0.0677976579870149</v>
+        <v>0.07112486547138802</v>
       </c>
       <c r="Q11">
-        <v>25.92628607282802</v>
+        <v>28.410958007225</v>
       </c>
       <c r="R11">
-        <v>25.92628607282802</v>
+        <v>255.698622065025</v>
       </c>
       <c r="S11">
-        <v>0.01630876424428562</v>
+        <v>0.01671809516167403</v>
       </c>
       <c r="T11">
-        <v>0.01630876424428562</v>
+        <v>0.01671809516167402</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.42285064289895</v>
+        <v>9.443581333333334</v>
       </c>
       <c r="H12">
-        <v>9.42285064289895</v>
+        <v>28.330744</v>
       </c>
       <c r="I12">
-        <v>0.2748543213650902</v>
+        <v>0.2626604773504909</v>
       </c>
       <c r="J12">
-        <v>0.2748543213650902</v>
+        <v>0.2626604773504908</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>22.8249037155233</v>
+        <v>23.18647466666667</v>
       </c>
       <c r="N12">
-        <v>22.8249037155233</v>
+        <v>69.55942400000001</v>
       </c>
       <c r="O12">
-        <v>0.4922315401143673</v>
+        <v>0.4905436214732101</v>
       </c>
       <c r="P12">
-        <v>0.4922315401143673</v>
+        <v>0.49054362147321</v>
       </c>
       <c r="Q12">
-        <v>215.0756586499253</v>
+        <v>218.9633593479396</v>
       </c>
       <c r="R12">
-        <v>215.0756586499253</v>
+        <v>1970.670234131456</v>
       </c>
       <c r="S12">
-        <v>0.1352919659126276</v>
+        <v>0.1288464217773919</v>
       </c>
       <c r="T12">
-        <v>0.1352919659126276</v>
+        <v>0.1288464217773918</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.42285064289895</v>
+        <v>9.443581333333334</v>
       </c>
       <c r="H13">
-        <v>9.42285064289895</v>
+        <v>28.330744</v>
       </c>
       <c r="I13">
-        <v>0.2748543213650902</v>
+        <v>0.2626604773504909</v>
       </c>
       <c r="J13">
-        <v>0.2748543213650902</v>
+        <v>0.2626604773504908</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.06649975083874</v>
+        <v>7.208490333333334</v>
       </c>
       <c r="N13">
-        <v>7.06649975083874</v>
+        <v>21.625471</v>
       </c>
       <c r="O13">
-        <v>0.1523929344423698</v>
+        <v>0.1525061055767782</v>
       </c>
       <c r="P13">
-        <v>0.1523929344423698</v>
+        <v>0.1525061055767782</v>
       </c>
       <c r="Q13">
-        <v>66.58657172023609</v>
+        <v>68.07396475338045</v>
       </c>
       <c r="R13">
-        <v>66.58657172023609</v>
+        <v>612.665682780424</v>
       </c>
       <c r="S13">
-        <v>0.04188585657699224</v>
+        <v>0.04005732648966093</v>
       </c>
       <c r="T13">
-        <v>0.04188585657699224</v>
+        <v>0.04005732648966091</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>9.42285064289895</v>
+        <v>9.443581333333334</v>
       </c>
       <c r="H14">
-        <v>9.42285064289895</v>
+        <v>28.330744</v>
       </c>
       <c r="I14">
-        <v>0.2748543213650902</v>
+        <v>0.2626604773504909</v>
       </c>
       <c r="J14">
-        <v>0.2748543213650902</v>
+        <v>0.2626604773504908</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.77008086469817</v>
+        <v>5.814195333333333</v>
       </c>
       <c r="N14">
-        <v>5.77008086469817</v>
+        <v>17.442586</v>
       </c>
       <c r="O14">
-        <v>0.1244349516656747</v>
+        <v>0.1230077653359797</v>
       </c>
       <c r="P14">
-        <v>0.1244349516656747</v>
+        <v>0.1230077653359796</v>
       </c>
       <c r="Q14">
-        <v>54.37061018550008</v>
+        <v>54.90682651822045</v>
       </c>
       <c r="R14">
-        <v>54.37061018550008</v>
+        <v>494.161438663984</v>
       </c>
       <c r="S14">
-        <v>0.03420148419416682</v>
+        <v>0.03230927836096558</v>
       </c>
       <c r="T14">
-        <v>0.03420148419416682</v>
+        <v>0.03230927836096557</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>9.42285064289895</v>
+        <v>9.443581333333334</v>
       </c>
       <c r="H15">
-        <v>9.42285064289895</v>
+        <v>28.330744</v>
       </c>
       <c r="I15">
-        <v>0.2748543213650902</v>
+        <v>0.2626604773504909</v>
       </c>
       <c r="J15">
-        <v>0.2748543213650902</v>
+        <v>0.2626604773504908</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.56497916392025</v>
+        <v>7.695884666666667</v>
       </c>
       <c r="N15">
-        <v>7.56497916392025</v>
+        <v>23.087654</v>
       </c>
       <c r="O15">
-        <v>0.1631429157905734</v>
+        <v>0.162817642142644</v>
       </c>
       <c r="P15">
-        <v>0.1631429157905734</v>
+        <v>0.162817642142644</v>
       </c>
       <c r="Q15">
-        <v>71.28366877826309</v>
+        <v>72.67671278161957</v>
       </c>
       <c r="R15">
-        <v>71.28366877826309</v>
+        <v>654.090415034576</v>
       </c>
       <c r="S15">
-        <v>0.04484053540514012</v>
+        <v>0.04276575960626828</v>
       </c>
       <c r="T15">
-        <v>0.04484053540514012</v>
+        <v>0.04276575960626826</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9.42285064289895</v>
+        <v>9.443581333333334</v>
       </c>
       <c r="H16">
-        <v>9.42285064289895</v>
+        <v>28.330744</v>
       </c>
       <c r="I16">
-        <v>0.2748543213650902</v>
+        <v>0.2626604773504909</v>
       </c>
       <c r="J16">
-        <v>0.2748543213650902</v>
+        <v>0.2626604773504908</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.14379492084568</v>
+        <v>3.361851666666666</v>
       </c>
       <c r="N16">
-        <v>3.14379492084568</v>
+        <v>10.085555</v>
       </c>
       <c r="O16">
-        <v>0.0677976579870149</v>
+        <v>0.07112486547138804</v>
       </c>
       <c r="P16">
-        <v>0.0677976579870149</v>
+        <v>0.07112486547138802</v>
       </c>
       <c r="Q16">
-        <v>29.62350999103317</v>
+        <v>31.74791964476889</v>
       </c>
       <c r="R16">
-        <v>29.62350999103317</v>
+        <v>285.73127680292</v>
       </c>
       <c r="S16">
-        <v>0.01863447927616347</v>
+        <v>0.01868169111620423</v>
       </c>
       <c r="T16">
-        <v>0.01863447927616347</v>
+        <v>0.01868169111620422</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.06897357444559</v>
+        <v>6.387937333333333</v>
       </c>
       <c r="H17">
-        <v>6.06897357444559</v>
+        <v>19.163812</v>
       </c>
       <c r="I17">
-        <v>0.1770253691162955</v>
+        <v>0.1776718609216568</v>
       </c>
       <c r="J17">
-        <v>0.1770253691162955</v>
+        <v>0.1776718609216568</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>22.8249037155233</v>
+        <v>23.18647466666667</v>
       </c>
       <c r="N17">
-        <v>22.8249037155233</v>
+        <v>69.55942400000001</v>
       </c>
       <c r="O17">
-        <v>0.4922315401143673</v>
+        <v>0.4905436214732101</v>
       </c>
       <c r="P17">
-        <v>0.4922315401143673</v>
+        <v>0.49054362147321</v>
       </c>
       <c r="Q17">
-        <v>138.5237374887759</v>
+        <v>148.1137471515876</v>
       </c>
       <c r="R17">
-        <v>138.5237374887759</v>
+        <v>1333.023724364288</v>
       </c>
       <c r="S17">
-        <v>0.08713747007942847</v>
+        <v>0.08715579809039406</v>
       </c>
       <c r="T17">
-        <v>0.08713747007942847</v>
+        <v>0.08715579809039405</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.06897357444559</v>
+        <v>6.387937333333333</v>
       </c>
       <c r="H18">
-        <v>6.06897357444559</v>
+        <v>19.163812</v>
       </c>
       <c r="I18">
-        <v>0.1770253691162955</v>
+        <v>0.1776718609216568</v>
       </c>
       <c r="J18">
-        <v>0.1770253691162955</v>
+        <v>0.1776718609216568</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>7.06649975083874</v>
+        <v>7.208490333333334</v>
       </c>
       <c r="N18">
-        <v>7.06649975083874</v>
+        <v>21.625471</v>
       </c>
       <c r="O18">
-        <v>0.1523929344423698</v>
+        <v>0.1525061055767782</v>
       </c>
       <c r="P18">
-        <v>0.1523929344423698</v>
+        <v>0.1525061055767782</v>
       </c>
       <c r="Q18">
-        <v>42.88640025166666</v>
+        <v>46.04738451727245</v>
       </c>
       <c r="R18">
-        <v>42.88640025166666</v>
+        <v>414.426460655452</v>
       </c>
       <c r="S18">
-        <v>0.02697741547037594</v>
+        <v>0.02709604357974086</v>
       </c>
       <c r="T18">
-        <v>0.02697741547037594</v>
+        <v>0.02709604357974085</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.06897357444559</v>
+        <v>6.387937333333333</v>
       </c>
       <c r="H19">
-        <v>6.06897357444559</v>
+        <v>19.163812</v>
       </c>
       <c r="I19">
-        <v>0.1770253691162955</v>
+        <v>0.1776718609216568</v>
       </c>
       <c r="J19">
-        <v>0.1770253691162955</v>
+        <v>0.1776718609216568</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.77008086469817</v>
+        <v>5.814195333333333</v>
       </c>
       <c r="N19">
-        <v>5.77008086469817</v>
+        <v>17.442586</v>
       </c>
       <c r="O19">
-        <v>0.1244349516656747</v>
+        <v>0.1230077653359797</v>
       </c>
       <c r="P19">
-        <v>0.1244349516656747</v>
+        <v>0.1230077653359796</v>
       </c>
       <c r="Q19">
-        <v>35.01846829026736</v>
+        <v>37.14071543309245</v>
       </c>
       <c r="R19">
-        <v>35.01846829026736</v>
+        <v>334.266438897832</v>
       </c>
       <c r="S19">
-        <v>0.02202814324958445</v>
+        <v>0.02185501857505798</v>
       </c>
       <c r="T19">
-        <v>0.02202814324958445</v>
+        <v>0.02185501857505798</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.06897357444559</v>
+        <v>6.387937333333333</v>
       </c>
       <c r="H20">
-        <v>6.06897357444559</v>
+        <v>19.163812</v>
       </c>
       <c r="I20">
-        <v>0.1770253691162955</v>
+        <v>0.1776718609216568</v>
       </c>
       <c r="J20">
-        <v>0.1770253691162955</v>
+        <v>0.1776718609216568</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.56497916392025</v>
+        <v>7.695884666666667</v>
       </c>
       <c r="N20">
-        <v>7.56497916392025</v>
+        <v>23.087654</v>
       </c>
       <c r="O20">
-        <v>0.1631429157905734</v>
+        <v>0.162817642142644</v>
       </c>
       <c r="P20">
-        <v>0.1631429157905734</v>
+        <v>0.162817642142644</v>
       </c>
       <c r="Q20">
-        <v>45.9116586370635</v>
+        <v>49.16082897522756</v>
       </c>
       <c r="R20">
-        <v>45.9116586370635</v>
+        <v>442.447460777048</v>
       </c>
       <c r="S20">
-        <v>0.02888043488653496</v>
+        <v>0.02892811347035994</v>
       </c>
       <c r="T20">
-        <v>0.02888043488653496</v>
+        <v>0.02892811347035994</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.06897357444559</v>
+        <v>6.387937333333333</v>
       </c>
       <c r="H21">
-        <v>6.06897357444559</v>
+        <v>19.163812</v>
       </c>
       <c r="I21">
-        <v>0.1770253691162955</v>
+        <v>0.1776718609216568</v>
       </c>
       <c r="J21">
-        <v>0.1770253691162955</v>
+        <v>0.1776718609216568</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.14379492084568</v>
+        <v>3.361851666666666</v>
       </c>
       <c r="N21">
-        <v>3.14379492084568</v>
+        <v>10.085555</v>
       </c>
       <c r="O21">
-        <v>0.0677976579870149</v>
+        <v>0.07112486547138804</v>
       </c>
       <c r="P21">
-        <v>0.0677976579870149</v>
+        <v>0.07112486547138802</v>
       </c>
       <c r="Q21">
-        <v>19.0796082980887</v>
+        <v>21.47529777062889</v>
       </c>
       <c r="R21">
-        <v>19.0796082980887</v>
+        <v>193.27767993566</v>
       </c>
       <c r="S21">
-        <v>0.01200190543037167</v>
+        <v>0.01263688720610401</v>
       </c>
       <c r="T21">
-        <v>0.01200190543037167</v>
+        <v>0.01263688720610401</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.40546641079546</v>
+        <v>4.103880666666666</v>
       </c>
       <c r="H22">
-        <v>3.40546641079546</v>
+        <v>12.311642</v>
       </c>
       <c r="I22">
-        <v>0.09933375734615615</v>
+        <v>0.1141439054579135</v>
       </c>
       <c r="J22">
-        <v>0.09933375734615615</v>
+        <v>0.1141439054579135</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>22.8249037155233</v>
+        <v>23.18647466666667</v>
       </c>
       <c r="N22">
-        <v>22.8249037155233</v>
+        <v>69.55942400000001</v>
       </c>
       <c r="O22">
-        <v>0.4922315401143673</v>
+        <v>0.4905436214732101</v>
       </c>
       <c r="P22">
-        <v>0.4922315401143673</v>
+        <v>0.49054362147321</v>
       </c>
       <c r="Q22">
-        <v>77.72944293285508</v>
+        <v>95.15452511268977</v>
       </c>
       <c r="R22">
-        <v>77.72944293285508</v>
+        <v>856.390726014208</v>
       </c>
       <c r="S22">
-        <v>0.04889520836384529</v>
+        <v>0.05599256475242062</v>
       </c>
       <c r="T22">
-        <v>0.04889520836384529</v>
+        <v>0.0559925647524206</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.40546641079546</v>
+        <v>4.103880666666666</v>
       </c>
       <c r="H23">
-        <v>3.40546641079546</v>
+        <v>12.311642</v>
       </c>
       <c r="I23">
-        <v>0.09933375734615615</v>
+        <v>0.1141439054579135</v>
       </c>
       <c r="J23">
-        <v>0.09933375734615615</v>
+        <v>0.1141439054579135</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>7.06649975083874</v>
+        <v>7.208490333333334</v>
       </c>
       <c r="N23">
-        <v>7.06649975083874</v>
+        <v>21.625471</v>
       </c>
       <c r="O23">
-        <v>0.1523929344423698</v>
+        <v>0.1525061055767782</v>
       </c>
       <c r="P23">
-        <v>0.1523929344423698</v>
+        <v>0.1525061055767782</v>
       </c>
       <c r="Q23">
-        <v>24.06472754337582</v>
+        <v>29.58278411482022</v>
       </c>
       <c r="R23">
-        <v>24.06472754337582</v>
+        <v>266.245057033382</v>
       </c>
       <c r="S23">
-        <v>0.01513776277116705</v>
+        <v>0.01740764249671036</v>
       </c>
       <c r="T23">
-        <v>0.01513776277116705</v>
+        <v>0.01740764249671035</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.40546641079546</v>
+        <v>4.103880666666666</v>
       </c>
       <c r="H24">
-        <v>3.40546641079546</v>
+        <v>12.311642</v>
       </c>
       <c r="I24">
-        <v>0.09933375734615615</v>
+        <v>0.1141439054579135</v>
       </c>
       <c r="J24">
-        <v>0.09933375734615615</v>
+        <v>0.1141439054579135</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.77008086469817</v>
+        <v>5.814195333333333</v>
       </c>
       <c r="N24">
-        <v>5.77008086469817</v>
+        <v>17.442586</v>
       </c>
       <c r="O24">
-        <v>0.1244349516656747</v>
+        <v>0.1230077653359797</v>
       </c>
       <c r="P24">
-        <v>0.1244349516656747</v>
+        <v>0.1230077653359796</v>
       </c>
       <c r="Q24">
-        <v>19.64981657230324</v>
+        <v>23.86076382069022</v>
       </c>
       <c r="R24">
-        <v>19.64981657230324</v>
+        <v>214.746874386212</v>
       </c>
       <c r="S24">
-        <v>0.0123605912941388</v>
+        <v>0.01404058673709928</v>
       </c>
       <c r="T24">
-        <v>0.0123605912941388</v>
+        <v>0.01404058673709927</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.40546641079546</v>
+        <v>4.103880666666666</v>
       </c>
       <c r="H25">
-        <v>3.40546641079546</v>
+        <v>12.311642</v>
       </c>
       <c r="I25">
-        <v>0.09933375734615615</v>
+        <v>0.1141439054579135</v>
       </c>
       <c r="J25">
-        <v>0.09933375734615615</v>
+        <v>0.1141439054579135</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>7.56497916392025</v>
+        <v>7.695884666666667</v>
       </c>
       <c r="N25">
-        <v>7.56497916392025</v>
+        <v>23.087654</v>
       </c>
       <c r="O25">
-        <v>0.1631429157905734</v>
+        <v>0.162817642142644</v>
       </c>
       <c r="P25">
-        <v>0.1631429157905734</v>
+        <v>0.162817642142644</v>
       </c>
       <c r="Q25">
-        <v>25.76228244109793</v>
+        <v>31.58299229642978</v>
       </c>
       <c r="R25">
-        <v>25.76228244109793</v>
+        <v>284.246930667868</v>
       </c>
       <c r="S25">
-        <v>0.0162055988098852</v>
+        <v>0.01858464155161036</v>
       </c>
       <c r="T25">
-        <v>0.0162055988098852</v>
+        <v>0.01858464155161035</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>3.40546641079546</v>
+        <v>4.103880666666666</v>
       </c>
       <c r="H26">
-        <v>3.40546641079546</v>
+        <v>12.311642</v>
       </c>
       <c r="I26">
-        <v>0.09933375734615615</v>
+        <v>0.1141439054579135</v>
       </c>
       <c r="J26">
-        <v>0.09933375734615615</v>
+        <v>0.1141439054579135</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.14379492084568</v>
+        <v>3.361851666666666</v>
       </c>
       <c r="N26">
-        <v>3.14379492084568</v>
+        <v>10.085555</v>
       </c>
       <c r="O26">
-        <v>0.0677976579870149</v>
+        <v>0.07112486547138804</v>
       </c>
       <c r="P26">
-        <v>0.0677976579870149</v>
+        <v>0.07112486547138802</v>
       </c>
       <c r="Q26">
-        <v>10.70608800536933</v>
+        <v>13.79663805903444</v>
       </c>
       <c r="R26">
-        <v>10.70608800536933</v>
+        <v>124.16974253131</v>
       </c>
       <c r="S26">
-        <v>0.006734596107119823</v>
+        <v>0.008118469920072936</v>
       </c>
       <c r="T26">
-        <v>0.006734596107119823</v>
+        <v>0.008118469920072932</v>
       </c>
     </row>
   </sheetData>
